--- a/Characteristis_and_photo_parsing/Реал-керамика 16.12.2024 .xlsx
+++ b/Characteristis_and_photo_parsing/Реал-керамика 16.12.2024 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F3BFE-D6EB-4D54-9FCE-1E215CF03468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E630B7-8937-4B44-8950-8280E694BECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="84" t="str">
-        <f>IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" ref="AD42:AD53" si="4">IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
         <v>ок</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="54" t="str">
-        <f t="shared" ref="D43:D51" si="4">IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,))))))))))))))))))))))</f>
+        <f t="shared" ref="D43:D51" si="5">IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,))))))))))))))))))))))</f>
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="31" t="s">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="84" t="str">
-        <f>IF(RIGHT(G43,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E44" s="87"/>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="84" t="str">
-        <f>IF(RIGHT(G44,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E45" s="87"/>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="84" t="str">
-        <f>IF(RIGHT(G45,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="87"/>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="84" t="str">
-        <f>IF(RIGHT(G46,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E47" s="87"/>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="84" t="str">
-        <f>IF(RIGHT(G47,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E48" s="87"/>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="84" t="str">
-        <f>IF(RIGHT(G48,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E49" s="87"/>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="84" t="str">
-        <f>IF(RIGHT(G49,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E50" s="87"/>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="84" t="str">
-        <f>IF(RIGHT(G50,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E51" s="87"/>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="84" t="str">
-        <f>IF(RIGHT(G51,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="54">
-        <f t="shared" ref="D52:D53" si="5">IF(C52=C$20,D$20,IF(C52=C$21,D$21,IF(C52=C$22,D$22,IF(C52=C$23,D$23,IF(C52=C$24,D$24,IF(C52=C$25,D$25,IF(C52=C$26,D$26,IF(C52=C$27,D$27,IF(C52=C$28,D$28,IF(C52=C$29,D$29,IF(C52=C$30,D$30,IF(C52=C$31,D$31,IF(C52=C$32,D$32,IF(C52=C$33,D$33,IF(C52=C$34,D$34,IF(C52=C$35,D$35,IF(C52=C$36,D$36,IF(C52=C$37,D$37,IF(C52=C$38,D$38,IF(C52=C$39,D$39,IF(C52=C$40,D$40,)))))))))))))))))))))</f>
+        <f t="shared" ref="D52:D53" si="6">IF(C52=C$20,D$20,IF(C52=C$21,D$21,IF(C52=C$22,D$22,IF(C52=C$23,D$23,IF(C52=C$24,D$24,IF(C52=C$25,D$25,IF(C52=C$26,D$26,IF(C52=C$27,D$27,IF(C52=C$28,D$28,IF(C52=C$29,D$29,IF(C52=C$30,D$30,IF(C52=C$31,D$31,IF(C52=C$32,D$32,IF(C52=C$33,D$33,IF(C52=C$34,D$34,IF(C52=C$35,D$35,IF(C52=C$36,D$36,IF(C52=C$37,D$37,IF(C52=C$38,D$38,IF(C52=C$39,D$39,IF(C52=C$40,D$40,)))))))))))))))))))))</f>
         <v>0</v>
       </c>
       <c r="E52" s="87"/>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="84" t="str">
-        <f>IF(RIGHT(G52,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53" s="87"/>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="84" t="str">
-        <f>IF(RIGHT(G53,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" si="4"/>
         <v>ок</v>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="54">
-        <f t="shared" ref="D54:D64" si="6">IF(C54=C$20,D$20,IF(C54=C$21,D$21,IF(C54=C$22,D$22,IF(C54=C$23,D$23,IF(C54=C$24,D$24,IF(C54=C$25,D$25,IF(C54=C$26,D$26,IF(C54=C$27,D$27,IF(C54=C$28,D$28,IF(C54=C$29,D$29,IF(C54=C$30,D$30,IF(C54=C$31,D$31,IF(C54=C$32,D$32,IF(C54=C$33,D$33,IF(C54=C$34,D$34,IF(C54=C$35,D$35,IF(C54=C$36,D$36,IF(C54=C$37,D$37,IF(C54=C$38,D$38,IF(C54=C$39,D$39,IF(C54=C$40,D$40,)))))))))))))))))))))</f>
+        <f t="shared" ref="D54:D64" si="7">IF(C54=C$20,D$20,IF(C54=C$21,D$21,IF(C54=C$22,D$22,IF(C54=C$23,D$23,IF(C54=C$24,D$24,IF(C54=C$25,D$25,IF(C54=C$26,D$26,IF(C54=C$27,D$27,IF(C54=C$28,D$28,IF(C54=C$29,D$29,IF(C54=C$30,D$30,IF(C54=C$31,D$31,IF(C54=C$32,D$32,IF(C54=C$33,D$33,IF(C54=C$34,D$34,IF(C54=C$35,D$35,IF(C54=C$36,D$36,IF(C54=C$37,D$37,IF(C54=C$38,D$38,IF(C54=C$39,D$39,IF(C54=C$40,D$40,)))))))))))))))))))))</f>
         <v>0</v>
       </c>
       <c r="E54" s="87"/>
@@ -3486,27 +3486,27 @@
       <c r="V54" s="11"/>
       <c r="W54" s="83"/>
       <c r="X54" s="12">
-        <f t="shared" ref="X54:X64" si="7">IF(W54="USD",V54*64.8306,IF(W54="EUR",V54*72.3639,IF(W54="RUB",V54,0)))</f>
+        <f t="shared" ref="X54:X64" si="8">IF(W54="USD",V54*64.8306,IF(W54="EUR",V54*72.3639,IF(W54="RUB",V54,0)))</f>
         <v>0</v>
       </c>
       <c r="Y54" s="13">
         <v>23.4</v>
       </c>
       <c r="Z54" s="14">
-        <f t="shared" ref="Z54:Z64" si="8">X54*(1+Y54/100)</f>
+        <f t="shared" ref="Z54:Z64" si="9">X54*(1+Y54/100)</f>
         <v>0</v>
       </c>
       <c r="AA54" s="15"/>
       <c r="AB54" s="19">
-        <f t="shared" ref="AB54:AB64" si="9">IF(AA54,1,0)</f>
+        <f t="shared" ref="AB54:AB64" si="10">IF(AA54,1,0)</f>
         <v>0</v>
       </c>
       <c r="AC54" s="19">
-        <f t="shared" ref="AC54:AC64" si="10">IF(AA54,1,0)</f>
+        <f t="shared" ref="AC54:AC64" si="11">IF(AA54,1,0)</f>
         <v>0</v>
       </c>
       <c r="AD54" s="84" t="str">
-        <f t="shared" ref="AD54:AD64" si="11">IF(RIGHT(G54,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f t="shared" ref="AD54:AD64" si="12">IF(RIGHT(G54,1)=" ","Ошибка, пробел справа!","ок")</f>
         <v>ок</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E55" s="87"/>
@@ -3538,27 +3538,27 @@
       <c r="V55" s="11"/>
       <c r="W55" s="83"/>
       <c r="X55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y55" s="13">
         <v>23.4</v>
       </c>
       <c r="Z55" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA55" s="15"/>
       <c r="AB55" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC55" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD55" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E56" s="87"/>
@@ -3590,27 +3590,27 @@
       <c r="V56" s="11"/>
       <c r="W56" s="83"/>
       <c r="X56" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y56" s="13">
         <v>23.4</v>
       </c>
       <c r="Z56" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC56" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD56" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="D57" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E57" s="87"/>
@@ -3642,27 +3642,27 @@
       <c r="V57" s="11"/>
       <c r="W57" s="83"/>
       <c r="X57" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y57" s="13">
         <v>23.4</v>
       </c>
       <c r="Z57" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA57" s="15"/>
       <c r="AB57" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC57" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD57" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="D58" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E58" s="87"/>
@@ -3694,27 +3694,27 @@
       <c r="V58" s="11"/>
       <c r="W58" s="83"/>
       <c r="X58" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y58" s="13">
         <v>23.4</v>
       </c>
       <c r="Z58" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA58" s="15"/>
       <c r="AB58" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC58" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD58" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E59" s="87"/>
@@ -3746,27 +3746,27 @@
       <c r="V59" s="11"/>
       <c r="W59" s="83"/>
       <c r="X59" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y59" s="13">
         <v>23.4</v>
       </c>
       <c r="Z59" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA59" s="15"/>
       <c r="AB59" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC59" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD59" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
       <c r="D60" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E60" s="87"/>
@@ -3798,27 +3798,27 @@
       <c r="V60" s="11"/>
       <c r="W60" s="83"/>
       <c r="X60" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y60" s="13">
         <v>23.4</v>
       </c>
       <c r="Z60" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC60" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD60" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
       <c r="D61" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E61" s="87"/>
@@ -3850,27 +3850,27 @@
       <c r="V61" s="11"/>
       <c r="W61" s="83"/>
       <c r="X61" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y61" s="13">
         <v>23.4</v>
       </c>
       <c r="Z61" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA61" s="15"/>
       <c r="AB61" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC61" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD61" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E62" s="87"/>
@@ -3902,27 +3902,27 @@
       <c r="V62" s="11"/>
       <c r="W62" s="83"/>
       <c r="X62" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y62" s="13">
         <v>23.4</v>
       </c>
       <c r="Z62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA62" s="15"/>
       <c r="AB62" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC62" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD62" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
       <c r="D63" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E63" s="87"/>
@@ -3954,27 +3954,27 @@
       <c r="V63" s="11"/>
       <c r="W63" s="83"/>
       <c r="X63" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y63" s="13">
         <v>23.4</v>
       </c>
       <c r="Z63" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA63" s="15"/>
       <c r="AB63" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC63" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD63" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
       <c r="D64" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E64" s="87"/>
@@ -4006,27 +4006,27 @@
       <c r="V64" s="11"/>
       <c r="W64" s="83"/>
       <c r="X64" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y64" s="13">
         <v>23.4</v>
       </c>
       <c r="Z64" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC64" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD64" s="84" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ок</v>
       </c>
     </row>
